--- a/public/events/10-07-2020/name-list/sheet.xlsx
+++ b/public/events/10-07-2020/name-list/sheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -21,148 +21,124 @@
     <t>id</t>
   </si>
   <si>
-    <t>Harman Dreng</t>
-  </si>
-  <si>
-    <t>hdreng0@shop-pro.jp</t>
-  </si>
-  <si>
-    <t>Homerus Razoux</t>
-  </si>
-  <si>
-    <t>hrazoux1@mac.com</t>
-  </si>
-  <si>
-    <t>Chaddy Giller</t>
-  </si>
-  <si>
-    <t>cgiller2@gnu.org</t>
-  </si>
-  <si>
-    <t>Neddie Petrello</t>
-  </si>
-  <si>
-    <t>npetrello3@yandex.ru</t>
-  </si>
-  <si>
-    <t>Zondra Bugdale</t>
-  </si>
-  <si>
-    <t>zbugdale4@nifty.com</t>
-  </si>
-  <si>
-    <t>Abagail Bowring</t>
-  </si>
-  <si>
-    <t>abowring5@fotki.com</t>
-  </si>
-  <si>
-    <t>Lorne Faulconbridge</t>
-  </si>
-  <si>
-    <t>lfaulconbridge6@clickbank.net</t>
-  </si>
-  <si>
-    <t>Filia Thirtle</t>
-  </si>
-  <si>
-    <t>fthirtle7@xinhuanet.com</t>
-  </si>
-  <si>
-    <t>Levy Ranyelld</t>
-  </si>
-  <si>
-    <t>lranyelld0@state.gov</t>
-  </si>
-  <si>
-    <t>Obie Darrington</t>
-  </si>
-  <si>
-    <t>odarrington1@nsw.gov.au</t>
-  </si>
-  <si>
-    <t>Phineas Vanyukhin</t>
-  </si>
-  <si>
-    <t>pvanyukhin2@surveymonkey.com</t>
-  </si>
-  <si>
-    <t>Brittani Bilt</t>
-  </si>
-  <si>
-    <t>bbilt3@meetup.com</t>
-  </si>
-  <si>
-    <t>Jody Kennion</t>
-  </si>
-  <si>
-    <t>jkennion4@wired.com</t>
-  </si>
-  <si>
-    <t>Tabby Mullins</t>
-  </si>
-  <si>
-    <t>tmullins5@rakuten.co.jp</t>
-  </si>
-  <si>
-    <t>Romonda Schuricke</t>
-  </si>
-  <si>
-    <t>rschuricke6@adobe.com</t>
-  </si>
-  <si>
-    <t>Zsazsa Mosconi</t>
-  </si>
-  <si>
-    <t>zmosconi7@posterous.com</t>
-  </si>
-  <si>
-    <t>Florian Joseff</t>
-  </si>
-  <si>
-    <t>fjoseff0@whitehouse.gov</t>
-  </si>
-  <si>
-    <t>Delilah Holsall</t>
-  </si>
-  <si>
-    <t>dholsall1@ebay.com</t>
-  </si>
-  <si>
-    <t>Xerxes Danelutti</t>
-  </si>
-  <si>
-    <t>xdanelutti2@wp.com</t>
-  </si>
-  <si>
-    <t>Alicea Brian</t>
-  </si>
-  <si>
-    <t>abrian3@i2i.jp</t>
-  </si>
-  <si>
-    <t>Camilla Sparry</t>
-  </si>
-  <si>
-    <t>csparry4@homestead.com</t>
-  </si>
-  <si>
-    <t>Vinita Woolhouse</t>
-  </si>
-  <si>
-    <t>vwoolhouse5@twitter.com</t>
-  </si>
-  <si>
-    <t>Breanne Doumerque</t>
-  </si>
-  <si>
-    <t>bdoumerque6@webnode.com</t>
-  </si>
-  <si>
-    <t>Doralia Semechik</t>
-  </si>
-  <si>
-    <t>dsemechik7@domainmarket.com</t>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Abraham@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Mohan@gmail.com</t>
+  </si>
+  <si>
+    <t>Karun</t>
+  </si>
+  <si>
+    <t>Karun@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Ashley@gmail.com</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>Abi@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Jeremy@gmail.com</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>Karthik@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaya</t>
+  </si>
+  <si>
+    <t>Jaya@gmail.com</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Stephen@gmail.com</t>
+  </si>
+  <si>
+    <t>Reupah</t>
+  </si>
+  <si>
+    <t>Reupah@gmail.com</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Philip@gmail.com</t>
+  </si>
+  <si>
+    <t>Saji</t>
+  </si>
+  <si>
+    <t>Saji@gmail.com</t>
+  </si>
+  <si>
+    <t>Sajan</t>
+  </si>
+  <si>
+    <t>Sajan@gmail.com</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Praveen@gmail.com</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Sony@gmail.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>John@gmail.com</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Samuel@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinita</t>
+  </si>
+  <si>
+    <t>Vinita@gmail.com</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Asher@gmail.com</t>
+  </si>
+  <si>
+    <t>John lall</t>
+  </si>
+  <si>
+    <t>Johnlall@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -519,12 +495,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -555,67 +527,59 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -646,66 +610,66 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
